--- a/excel-data/StoreOrder.xlsx
+++ b/excel-data/StoreOrder.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10608"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10727"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marianbastiurea/Documents/GitHub/happycoding/excel-data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FA2C35C-9319-BF47-9573-13327205FC00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D60A3A07-2383-4E41-AE4F-2A5E2233C634}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{9EE82D09-FED6-DB49-95BD-9751453DFB86}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="26">
   <si>
     <t>Store Name</t>
   </si>
@@ -47,9 +47,6 @@
     <t>Quantity</t>
   </si>
   <si>
-    <t>Aldi</t>
-  </si>
-  <si>
     <t>ACACIA</t>
   </si>
   <si>
@@ -68,9 +65,6 @@
     <t>FALSE_INDIGO</t>
   </si>
   <si>
-    <t>Lidl</t>
-  </si>
-  <si>
     <t>Tesco</t>
   </si>
   <si>
@@ -78,6 +72,48 @@
   </si>
   <si>
     <t>OnProcessing</t>
+  </si>
+  <si>
+    <t>Aldi1</t>
+  </si>
+  <si>
+    <t>Aldi2</t>
+  </si>
+  <si>
+    <t>Aldi3</t>
+  </si>
+  <si>
+    <t>Lidl1</t>
+  </si>
+  <si>
+    <t>Lidl2</t>
+  </si>
+  <si>
+    <t>Lidl3</t>
+  </si>
+  <si>
+    <t>Lidl4</t>
+  </si>
+  <si>
+    <t>Lidl5</t>
+  </si>
+  <si>
+    <t>Lidl6</t>
+  </si>
+  <si>
+    <t>Lidl7</t>
+  </si>
+  <si>
+    <t>Lidl8</t>
+  </si>
+  <si>
+    <t>Lidl9</t>
+  </si>
+  <si>
+    <t>Lidl10</t>
+  </si>
+  <si>
+    <t>Lidl11</t>
   </si>
 </sst>
 </file>
@@ -85,10 +121,16 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -450,10 +492,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B747A66-C1BB-464D-B857-80FAE9034829}">
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:E63"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="C64" sqref="C64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -469,24 +511,24 @@
         <v>2</v>
       </c>
       <c r="D1" t="s" s="0">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E1" t="s" s="0">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="B2" t="s" s="0">
         <v>3</v>
       </c>
-      <c r="B2" t="s" s="0">
-        <v>4</v>
-      </c>
       <c r="C2" s="0">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="D2" t="n" s="0">
-        <v>1000.0</v>
+        <v>100.0</v>
       </c>
       <c r="E2" t="n" s="0">
         <v>0.0</v>
@@ -494,33 +536,33 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s" s="0">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C3" s="0">
-        <v>5000</v>
+        <v>110</v>
       </c>
       <c r="D3" t="n" s="0">
-        <v>4000.0</v>
+        <v>110.0</v>
       </c>
       <c r="E3" t="n" s="0">
-        <v>1000.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s" s="0">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C4" s="0">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="D4" t="n" s="0">
-        <v>1000.0</v>
+        <v>50.0</v>
       </c>
       <c r="E4" t="n" s="0">
         <v>0.0</v>
@@ -528,16 +570,16 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s" s="0">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C5" s="0">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="D5" t="n" s="0">
-        <v>1000.0</v>
+        <v>150.0</v>
       </c>
       <c r="E5" t="n" s="0">
         <v>0.0</v>
@@ -545,16 +587,16 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s" s="0">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C6" s="0">
-        <v>2000</v>
+        <v>100</v>
       </c>
       <c r="D6" t="n" s="0">
-        <v>2000.0</v>
+        <v>100.0</v>
       </c>
       <c r="E6" t="n" s="0">
         <v>0.0</v>
@@ -562,16 +604,16 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="B7" t="s" s="0">
         <v>3</v>
       </c>
-      <c r="B7" t="s" s="0">
-        <v>9</v>
-      </c>
       <c r="C7" s="0">
-        <v>1000</v>
+        <v>220</v>
       </c>
       <c r="D7" t="n" s="0">
-        <v>1000.0</v>
+        <v>220.0</v>
       </c>
       <c r="E7" t="n" s="0">
         <v>0.0</v>
@@ -579,16 +621,16 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s" s="0">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C8" s="0">
-        <v>1000</v>
+        <v>230</v>
       </c>
       <c r="D8" t="n" s="0">
-        <v>1000.0</v>
+        <v>230.0</v>
       </c>
       <c r="E8" t="n" s="0">
         <v>0.0</v>
@@ -596,16 +638,16 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s" s="0">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C9" s="0">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="D9" t="n" s="0">
-        <v>1000.0</v>
+        <v>100.0</v>
       </c>
       <c r="E9" t="n" s="0">
         <v>0.0</v>
@@ -613,16 +655,16 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s" s="0">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C10" s="0">
-        <v>1000</v>
+        <v>220</v>
       </c>
       <c r="D10" t="n" s="0">
-        <v>1000.0</v>
+        <v>220.0</v>
       </c>
       <c r="E10" t="n" s="0">
         <v>0.0</v>
@@ -630,16 +672,16 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s" s="0">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C11" s="0">
-        <v>1000</v>
+        <v>210</v>
       </c>
       <c r="D11" t="n" s="0">
-        <v>1000.0</v>
+        <v>210.0</v>
       </c>
       <c r="E11" t="n" s="0">
         <v>0.0</v>
@@ -647,22 +689,890 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s" s="0">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B12" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C12" s="0">
+        <v>40</v>
+      </c>
+      <c r="D12" t="n" s="0">
+        <v>40.0</v>
+      </c>
+      <c r="E12" t="n" s="0">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="B13" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="C13" s="0">
+        <v>110</v>
+      </c>
+      <c r="D13" t="n" s="0">
+        <v>110.0</v>
+      </c>
+      <c r="E13" t="n" s="0">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="B14" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="C14" s="0">
+        <v>110</v>
+      </c>
+      <c r="D14" t="n" s="0">
+        <v>110.0</v>
+      </c>
+      <c r="E14" t="n" s="0">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="B15" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="C15" s="0">
+        <v>110</v>
+      </c>
+      <c r="D15" t="n" s="0">
+        <v>110.0</v>
+      </c>
+      <c r="E15" t="n" s="0">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="C16" s="0">
+        <v>110</v>
+      </c>
+      <c r="D16" t="n" s="0">
+        <v>110.0</v>
+      </c>
+      <c r="E16" t="n" s="0">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s" s="0">
         <v>8</v>
       </c>
-      <c r="C12" s="0">
-        <v>1000</v>
-      </c>
-      <c r="D12" t="n" s="0">
-        <v>1000.0</v>
-      </c>
-      <c r="E12" t="n" s="0">
+      <c r="C17" s="0">
+        <v>110</v>
+      </c>
+      <c r="D17" t="n" s="0">
+        <v>110.0</v>
+      </c>
+      <c r="E17" t="n" s="0">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C18" s="0">
+        <v>200</v>
+      </c>
+      <c r="D18" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="E18" t="n" s="0">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="B19" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="C19" s="0">
+        <v>200</v>
+      </c>
+      <c r="D19" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="E19" t="n" s="0">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="B20" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="C20" s="0">
+        <v>100</v>
+      </c>
+      <c r="D20" t="n" s="0">
+        <v>100.0</v>
+      </c>
+      <c r="E20" t="n" s="0">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="B21" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="C21" s="0">
+        <v>50</v>
+      </c>
+      <c r="D21" t="n" s="0">
+        <v>50.0</v>
+      </c>
+      <c r="E21" t="n" s="0">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="B22" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="C22" s="0">
+        <v>90</v>
+      </c>
+      <c r="D22" t="n" s="0">
+        <v>90.0</v>
+      </c>
+      <c r="E22" t="n" s="0">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="B23" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="C23" s="0">
+        <v>200</v>
+      </c>
+      <c r="D23" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="E23" t="n" s="0">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24" t="s" s="0">
+        <v>19</v>
+      </c>
+      <c r="B24" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C24" s="0">
+        <v>100</v>
+      </c>
+      <c r="D24" t="n" s="0">
+        <v>100.0</v>
+      </c>
+      <c r="E24" t="n" s="0">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25" t="s" s="0">
+        <v>19</v>
+      </c>
+      <c r="B25" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="C25" s="0">
+        <v>100</v>
+      </c>
+      <c r="D25" t="n" s="0">
+        <v>100.0</v>
+      </c>
+      <c r="E25" t="n" s="0">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26" t="s" s="0">
+        <v>19</v>
+      </c>
+      <c r="B26" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="C26" s="0">
+        <v>100</v>
+      </c>
+      <c r="D26" t="n" s="0">
+        <v>100.0</v>
+      </c>
+      <c r="E26" t="n" s="0">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27" t="s" s="0">
+        <v>19</v>
+      </c>
+      <c r="B27" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="C27" s="0">
+        <v>100</v>
+      </c>
+      <c r="D27" t="n" s="0">
+        <v>100.0</v>
+      </c>
+      <c r="E27" t="n" s="0">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A28" t="s" s="0">
+        <v>19</v>
+      </c>
+      <c r="B28" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="C28" s="0">
+        <v>100</v>
+      </c>
+      <c r="D28" t="n" s="0">
+        <v>100.0</v>
+      </c>
+      <c r="E28" t="n" s="0">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A29" t="s" s="0">
+        <v>19</v>
+      </c>
+      <c r="B29" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="C29" s="0">
+        <v>100</v>
+      </c>
+      <c r="D29" t="n" s="0">
+        <v>100.0</v>
+      </c>
+      <c r="E29" t="n" s="0">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A30" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="B30" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C30" s="0">
+        <v>100</v>
+      </c>
+      <c r="D30" t="n" s="0">
+        <v>100.0</v>
+      </c>
+      <c r="E30" t="n" s="0">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A31" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="B31" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="C31" s="0">
+        <v>100</v>
+      </c>
+      <c r="D31" t="n" s="0">
+        <v>100.0</v>
+      </c>
+      <c r="E31" t="n" s="0">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A32" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="B32" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="C32" s="0">
+        <v>100</v>
+      </c>
+      <c r="D32" t="n" s="0">
+        <v>100.0</v>
+      </c>
+      <c r="E32" t="n" s="0">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A33" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="B33" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="C33" s="0">
+        <v>100</v>
+      </c>
+      <c r="D33" t="n" s="0">
+        <v>100.0</v>
+      </c>
+      <c r="E33" t="n" s="0">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A34" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="B34" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="C34" s="0">
+        <v>100</v>
+      </c>
+      <c r="D34" t="n" s="0">
+        <v>100.0</v>
+      </c>
+      <c r="E34" t="n" s="0">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A35" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="B35" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="C35" s="0">
+        <v>200</v>
+      </c>
+      <c r="D35" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="E35" t="n" s="0">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A36" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="B36" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C36" s="0">
+        <v>100</v>
+      </c>
+      <c r="D36" t="n" s="0">
+        <v>100.0</v>
+      </c>
+      <c r="E36" t="n" s="0">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A37" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="B37" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="C37" s="0">
+        <v>200</v>
+      </c>
+      <c r="D37" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="E37" t="n" s="0">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A38" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="B38" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="C38" s="0">
+        <v>200</v>
+      </c>
+      <c r="D38" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="E38" t="n" s="0">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A39" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="B39" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="C39" s="0">
+        <v>200</v>
+      </c>
+      <c r="D39" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="E39" t="n" s="0">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A40" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="B40" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="C40" s="0">
+        <v>200</v>
+      </c>
+      <c r="D40" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="E40" t="n" s="0">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A41" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="B41" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="C41" s="0">
+        <v>200</v>
+      </c>
+      <c r="D41" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="E41" t="n" s="0">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A42" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="B42" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C42" s="0">
+        <v>200</v>
+      </c>
+      <c r="D42" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="E42" t="n" s="0">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A43" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="B43" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="C43" s="0">
+        <v>200</v>
+      </c>
+      <c r="D43" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="E43" t="n" s="0">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A44" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="B44" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="C44" s="0">
+        <v>200</v>
+      </c>
+      <c r="D44" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="E44" t="n" s="0">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A45" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="B45" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="C45" s="0">
+        <v>200</v>
+      </c>
+      <c r="D45" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="E45" t="n" s="0">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A46" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="B46" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="C46" s="0">
+        <v>200</v>
+      </c>
+      <c r="D46" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="E46" t="n" s="0">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A47" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="B47" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="C47" s="0">
+        <v>100</v>
+      </c>
+      <c r="D47" t="n" s="0">
+        <v>100.0</v>
+      </c>
+      <c r="E47" t="n" s="0">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A48" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="B48" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C48" s="0">
+        <v>100</v>
+      </c>
+      <c r="D48" t="n" s="0">
+        <v>100.0</v>
+      </c>
+      <c r="E48" t="n" s="0">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A49" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="B49" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="C49" s="0">
+        <v>100</v>
+      </c>
+      <c r="D49" t="n" s="0">
+        <v>100.0</v>
+      </c>
+      <c r="E49" t="n" s="0">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A50" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="B50" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="C50" s="0">
+        <v>100</v>
+      </c>
+      <c r="D50" t="n" s="0">
+        <v>100.0</v>
+      </c>
+      <c r="E50" t="n" s="0">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A51" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="B51" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="C51" s="0">
+        <v>100</v>
+      </c>
+      <c r="D51" t="n" s="0">
+        <v>100.0</v>
+      </c>
+      <c r="E51" t="n" s="0">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A52" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="B52" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="C52" s="0">
+        <v>100</v>
+      </c>
+      <c r="D52" t="n" s="0">
+        <v>100.0</v>
+      </c>
+      <c r="E52" t="n" s="0">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A53" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="B53" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="C53" s="0">
+        <v>100</v>
+      </c>
+      <c r="D53" t="n" s="0">
+        <v>100.0</v>
+      </c>
+      <c r="E53" t="n" s="0">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A54" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="B54" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C54" s="0">
+        <v>200</v>
+      </c>
+      <c r="D54" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="E54" t="n" s="0">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A55" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="B55" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="C55" s="0">
+        <v>200</v>
+      </c>
+      <c r="D55" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="E55" t="n" s="0">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A56" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="B56" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="C56" s="0">
+        <v>200</v>
+      </c>
+      <c r="D56" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="E56" t="n" s="0">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A57" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="B57" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="C57" s="0">
+        <v>200</v>
+      </c>
+      <c r="D57" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="E57" t="n" s="0">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A58" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="B58" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="C58" s="0">
+        <v>200</v>
+      </c>
+      <c r="D58" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="E58" t="n" s="0">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A59" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="B59" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="C59" s="0">
+        <v>200</v>
+      </c>
+      <c r="D59" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="E59" t="n" s="0">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A60" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="B60" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="C60" s="0">
+        <v>200</v>
+      </c>
+      <c r="D60" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="E60" t="n" s="0">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A61" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="B61" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="C61" s="0">
+        <v>100</v>
+      </c>
+      <c r="D61" t="n" s="0">
+        <v>100.0</v>
+      </c>
+      <c r="E61" t="n" s="0">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A62" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="B62" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C62" s="0">
+        <v>100</v>
+      </c>
+      <c r="D62" t="n" s="0">
+        <v>100.0</v>
+      </c>
+      <c r="E62" t="n" s="0">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A63" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="B63" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="C63" s="0">
+        <v>100</v>
+      </c>
+      <c r="D63" t="n" s="0">
+        <v>100.0</v>
+      </c>
+      <c r="E63" t="n" s="0">
         <v>0.0</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>